--- a/prophet/holiday.xlsx
+++ b/prophet/holiday.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="23">
@@ -123,23 +123,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,9 +142,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -163,9 +155,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +211,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -188,6 +219,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -204,19 +242,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -225,47 +257,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,15 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,17 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,26 +543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,151 +562,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,8 +1061,8 @@
   <sheetPr/>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1602,7 +1602,7 @@
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1616,7 +1616,7 @@
         <v>-1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1630,7 +1630,7 @@
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">

--- a/prophet/holiday.xlsx
+++ b/prophet/holiday.xlsx
@@ -10,14 +10,14 @@
     <sheet name="date_info" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">date_info!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">date_info!$A$1:$D$91</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t>holiday</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Valentine_day</t>
   </si>
   <si>
+    <t>520_day</t>
+  </si>
+  <si>
     <t>chinese_77_day</t>
   </si>
   <si>
@@ -70,13 +73,22 @@
     <t>holiday_moon</t>
   </si>
   <si>
-    <t>work_on_weekend</t>
-  </si>
-  <si>
-    <t>work_after_holiday3</t>
-  </si>
-  <si>
-    <t>work_after_holiday7</t>
+    <t>work_adj_before_chinesenewyear</t>
+  </si>
+  <si>
+    <t>work_adj_after_chinesenewyear</t>
+  </si>
+  <si>
+    <t>work_adj_before</t>
+  </si>
+  <si>
+    <t>work_adj_after</t>
+  </si>
+  <si>
+    <t>work_after_chinesenewyear</t>
+  </si>
+  <si>
+    <t>work_after_101</t>
   </si>
   <si>
     <t>work_before_holiday3</t>
@@ -86,6 +98,9 @@
   </si>
   <si>
     <t>holiday_summer</t>
+  </si>
+  <si>
+    <t>holiday_winter</t>
   </si>
 </sst>
 </file>
@@ -93,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="23">
@@ -121,21 +136,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +173,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -155,17 +217,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +242,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +250,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,34 +272,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,29 +285,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,16 +529,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,15 +568,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,151 +586,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1095,7 +1110,7 @@
         <v>42762</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1109,7 +1124,7 @@
         <v>43146</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1123,7 +1138,7 @@
         <v>43500</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1137,7 +1152,7 @@
         <v>43854</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1232,13 +1247,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>43586</v>
+        <v>43588</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1249,7 +1264,7 @@
         <v>43009</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -1263,7 +1278,7 @@
         <v>43374</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1277,7 +1292,7 @@
         <v>43739</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1288,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>42736</v>
+        <v>42737</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1372,13 +1387,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>43623</v>
+        <v>43625</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1400,13 +1415,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="2">
-        <v>43195</v>
+        <v>43197</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1414,13 +1429,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="2">
-        <v>43560</v>
+        <v>43562</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1554,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="2">
-        <v>42975</v>
+        <v>42875</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1568,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="2">
-        <v>43329</v>
+        <v>43240</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1582,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="2">
-        <v>43684</v>
+        <v>43605</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1596,13 +1611,13 @@
         <v>15</v>
       </c>
       <c r="B38" s="2">
-        <v>43094</v>
+        <v>42975</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1610,13 +1625,13 @@
         <v>15</v>
       </c>
       <c r="B39" s="2">
-        <v>43459</v>
+        <v>43329</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1624,13 +1639,13 @@
         <v>15</v>
       </c>
       <c r="B40" s="2">
-        <v>43824</v>
+        <v>43684</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1638,13 +1653,13 @@
         <v>16</v>
       </c>
       <c r="B41" s="2">
-        <v>43012</v>
+        <v>43094</v>
       </c>
       <c r="C41">
         <v>-1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1652,13 +1667,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="2">
-        <v>43367</v>
+        <v>43459</v>
       </c>
       <c r="C42">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1666,13 +1681,13 @@
         <v>16</v>
       </c>
       <c r="B43" s="2">
-        <v>43721</v>
+        <v>43824</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1680,13 +1695,13 @@
         <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>42757</v>
+        <v>43365</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1694,21 +1709,21 @@
         <v>17</v>
       </c>
       <c r="B45" s="2">
-        <v>42770</v>
+        <v>43721</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="2">
-        <v>42826</v>
+        <v>42757</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1719,10 +1734,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B47" s="2">
-        <v>42882</v>
+        <v>42770</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1733,10 +1748,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B48" s="2">
-        <v>43008</v>
+        <v>42826</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1747,10 +1762,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B49" s="2">
-        <v>43142</v>
+        <v>42882</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1761,10 +1776,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2">
-        <v>43155</v>
+        <v>43008</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1775,10 +1790,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" s="2">
-        <v>43198</v>
+        <v>43142</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1789,10 +1804,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2">
-        <v>43218</v>
+        <v>43155</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1803,10 +1818,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2">
-        <v>43372</v>
+        <v>43198</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1817,10 +1832,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2">
-        <v>43373</v>
+        <v>43218</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1831,10 +1846,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2">
-        <v>43463</v>
+        <v>43372</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1845,10 +1860,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B56" s="2">
-        <v>43498</v>
+        <v>43373</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1859,10 +1874,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B57" s="2">
-        <v>43499</v>
+        <v>43463</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1873,10 +1888,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" s="2">
-        <v>43583</v>
+        <v>43498</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1887,10 +1902,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B59" s="2">
-        <v>43590</v>
+        <v>43499</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1901,10 +1916,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B60" s="2">
-        <v>43737</v>
+        <v>43583</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1915,10 +1930,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2">
-        <v>42738</v>
+        <v>43590</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1929,10 +1944,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B62" s="2">
-        <v>42830</v>
+        <v>43737</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1943,10 +1958,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2">
-        <v>42857</v>
+        <v>43750</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1957,94 +1972,94 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B64" s="2">
-        <v>42886</v>
+        <v>42769</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B65" s="2">
-        <v>43102</v>
+        <v>43017</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B66" s="2">
-        <v>43198</v>
+        <v>43153</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B67" s="2">
-        <v>43222</v>
+        <v>43381</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B68" s="2">
-        <v>43270</v>
+        <v>43507</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2">
-        <v>43368</v>
+        <v>43746</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B70" s="2">
-        <v>43467</v>
+        <v>42826</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2055,10 +2070,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B71" s="2">
-        <v>43563</v>
+        <v>42853</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2069,10 +2084,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B72" s="2">
-        <v>43626</v>
+        <v>42882</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2083,10 +2098,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B73" s="2">
-        <v>43724</v>
+        <v>43098</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2097,10 +2112,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B74" s="2">
-        <v>43590</v>
+        <v>43194</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2111,10 +2126,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B75" s="2">
-        <v>42769</v>
+        <v>43218</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2125,10 +2140,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B76" s="2">
-        <v>43017</v>
+        <v>43266</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2139,10 +2154,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B77" s="2">
-        <v>43153</v>
+        <v>43364</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2153,10 +2168,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B78" s="2">
-        <v>43381</v>
+        <v>43463</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2167,10 +2182,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B79" s="2">
-        <v>43507</v>
+        <v>43559</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2181,10 +2196,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B80" s="2">
-        <v>43746</v>
+        <v>43585</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2195,10 +2210,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B81" s="2">
-        <v>42826</v>
+        <v>43622</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2209,10 +2224,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B82" s="2">
-        <v>42853</v>
+        <v>43720</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2223,10 +2238,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B83" s="2">
-        <v>42882</v>
+        <v>42761</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2237,10 +2252,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B84" s="2">
-        <v>43098</v>
+        <v>43008</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2251,10 +2266,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2">
-        <v>43194</v>
+        <v>43145</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2265,10 +2280,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
-        <v>43218</v>
+        <v>43373</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2279,10 +2294,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2">
-        <v>43266</v>
+        <v>43499</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2293,10 +2308,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2">
-        <v>43364</v>
+        <v>43738</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2305,204 +2320,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B89" s="2">
-        <v>43463</v>
+        <v>42981</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B90" s="2">
-        <v>43559</v>
+        <v>43345</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B91" s="2">
-        <v>43585</v>
+        <v>43709</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>-71</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B92" s="2">
-        <v>43622</v>
+        <v>42762</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B93" s="2">
-        <v>43720</v>
+        <v>43146</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B94" s="2">
-        <v>42761</v>
+        <v>43500</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="2">
-        <v>43008</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" s="2">
-        <v>43145</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="2">
-        <v>43373</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="2">
-        <v>43499</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="2">
-        <v>43738</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="2">
-        <v>42981</v>
-      </c>
-      <c r="C100">
-        <v>-62</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="2">
-        <v>43345</v>
-      </c>
-      <c r="C101">
-        <v>-62</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="2">
-        <v>43709</v>
-      </c>
-      <c r="C102">
-        <v>-62</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="G102" s="2"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
